--- a/PCEPILFE_Economics_optimized.xlsx
+++ b/PCEPILFE_Economics_optimized.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y196"/>
+  <dimension ref="A1:Y198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15119,7 +15119,7 @@
         <v>45596</v>
       </c>
       <c r="B191" t="n">
-        <v>123.601</v>
+        <v>123.595</v>
       </c>
       <c r="C191" t="n">
         <v>2.7</v>
@@ -15196,7 +15196,7 @@
         <v>45626</v>
       </c>
       <c r="B192" t="n">
-        <v>123.724</v>
+        <v>123.716</v>
       </c>
       <c r="C192" t="n">
         <v>2.7</v>
@@ -15205,7 +15205,7 @@
         <v>2.25612841</v>
       </c>
       <c r="E192" t="n">
-        <v>0.02790161350464082</v>
+        <v>0.02785306902980178</v>
       </c>
       <c r="F192" t="n">
         <v>2.7</v>
@@ -15273,7 +15273,7 @@
         <v>45657</v>
       </c>
       <c r="B193" t="n">
-        <v>123.981</v>
+        <v>123.98</v>
       </c>
       <c r="C193" t="n">
         <v>2.6</v>
@@ -15282,7 +15282,7 @@
         <v>2.4316758</v>
       </c>
       <c r="E193" t="n">
-        <v>0.02798984521452574</v>
+        <v>0.02792518307418668</v>
       </c>
       <c r="F193" t="n">
         <v>2.7</v>
@@ -15291,7 +15291,7 @@
         <v>0.2118518518518518</v>
       </c>
       <c r="H193" t="n">
-        <v>0.02790161350464082</v>
+        <v>0.02785306902980178</v>
       </c>
       <c r="I193" t="n">
         <v>0.4616487455197132</v>
@@ -15333,16 +15333,16 @@
         <v>3.3</v>
       </c>
       <c r="V193" t="n">
-        <v>0.02791396210301213</v>
+        <v>0.02786551251911524</v>
       </c>
       <c r="W193" t="n">
-        <v>0.02698411193477126</v>
+        <v>0.02693743018659508</v>
       </c>
       <c r="X193" t="n">
-        <v>0.02809950752100729</v>
+        <v>0.02805207548986968</v>
       </c>
       <c r="Y193" t="n">
-        <v>0.02798413453203616</v>
+        <v>0.02793698135551721</v>
       </c>
     </row>
     <row r="194">
@@ -15350,7 +15350,7 @@
         <v>45688</v>
       </c>
       <c r="B194" t="n">
-        <v>124.334</v>
+        <v>124.398</v>
       </c>
       <c r="C194" t="n">
         <v>2.8</v>
@@ -15359,7 +15359,7 @@
         <v>2.65035634</v>
       </c>
       <c r="E194" t="n">
-        <v>0.02824623697497231</v>
+        <v>0.02823817119043426</v>
       </c>
       <c r="F194" t="n">
         <v>2.6</v>
@@ -15368,7 +15368,7 @@
         <v>0.4616487455197132</v>
       </c>
       <c r="H194" t="n">
-        <v>0.02798984521452574</v>
+        <v>0.02792518307418668</v>
       </c>
       <c r="I194" t="n">
         <v>0.4892473118279569</v>
@@ -15410,23 +15410,25 @@
         <v>3</v>
       </c>
       <c r="V194" t="n">
-        <v>0.02800197008840222</v>
+        <v>0.02793742471399822</v>
       </c>
       <c r="W194" t="n">
-        <v>0.02729732292907359</v>
+        <v>0.02723514026915584</v>
       </c>
       <c r="X194" t="n">
-        <v>0.02830729458541951</v>
+        <v>0.02824400538441535</v>
       </c>
       <c r="Y194" t="n">
-        <v>0.02831353079139791</v>
+        <v>0.02825127983265472</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
         <v>45716</v>
       </c>
-      <c r="B195" t="inlineStr"/>
+      <c r="B195" t="n">
+        <v>125.017</v>
+      </c>
       <c r="C195" t="n">
         <v>3.3</v>
       </c>
@@ -15434,7 +15436,7 @@
         <v>2.62695841</v>
       </c>
       <c r="E195" t="n">
-        <v>0.02612365518555482</v>
+        <v>0.02663826529935065</v>
       </c>
       <c r="F195" t="n">
         <v>2.8</v>
@@ -15443,7 +15445,7 @@
         <v>0.4892473118279569</v>
       </c>
       <c r="H195" t="n">
-        <v>0.02824623697497231</v>
+        <v>0.02823817119043426</v>
       </c>
       <c r="I195" t="n">
         <v>0.426984126984127</v>
@@ -15485,28 +15487,34 @@
         <v>2.9</v>
       </c>
       <c r="V195" t="n">
-        <v>0.0282578938268299</v>
+        <v>0.02824984961397129</v>
       </c>
       <c r="W195" t="n">
-        <v>0.02805956368004634</v>
+        <v>0.02805176410305585</v>
       </c>
       <c r="X195" t="n">
-        <v>0.02854170578047707</v>
+        <v>0.02853397812806385</v>
       </c>
       <c r="Y195" t="n">
-        <v>0.02786433212348441</v>
+        <v>0.02785607983837948</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
         <v>45747</v>
       </c>
-      <c r="B196" t="inlineStr"/>
-      <c r="C196" t="inlineStr"/>
+      <c r="B196" t="n">
+        <v>125.052</v>
+      </c>
+      <c r="C196" t="n">
+        <v>4.3</v>
+      </c>
       <c r="D196" t="n">
-        <v>2.73218366</v>
-      </c>
-      <c r="E196" t="inlineStr"/>
+        <v>2.72766223</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.02921059023945993</v>
+      </c>
       <c r="F196" t="n">
         <v>3.3</v>
       </c>
@@ -15514,9 +15522,11 @@
         <v>0.426984126984127</v>
       </c>
       <c r="H196" t="n">
-        <v>0.02612365518555482</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>0.02663826529935065</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.1888888888888889</v>
+      </c>
       <c r="J196" t="n">
         <v>0.4892473118279569</v>
       </c>
@@ -15554,15 +15564,153 @@
         <v>2.8</v>
       </c>
       <c r="V196" t="n">
-        <v>0.02613942110996036</v>
-      </c>
-      <c r="W196" t="inlineStr"/>
+        <v>0.02665280452308694</v>
+      </c>
+      <c r="W196" t="n">
+        <v>0.02754859295497914</v>
+      </c>
       <c r="X196" t="n">
-        <v>0.02651042215460952</v>
+        <v>0.02701421386553291</v>
       </c>
       <c r="Y196" t="n">
-        <v>0.02566911668418098</v>
-      </c>
+        <v>0.02691911288305406</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="n">
+        <v>5</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2.18385272</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.02611122862457194</v>
+      </c>
+      <c r="F197" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.1888888888888889</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.02921059023945993</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0.426984126984127</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0.4892473118279569</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0.4616487455197132</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0.2118518518518518</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.05448028673835125</v>
+      </c>
+      <c r="O197" t="n">
+        <v>0.06851851851851851</v>
+      </c>
+      <c r="P197" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R197" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S197" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T197" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V197" t="n">
+        <v>0.02921961457554928</v>
+      </c>
+      <c r="W197" t="n">
+        <v>0.03073993759199538</v>
+      </c>
+      <c r="X197" t="n">
+        <v>0.02922750568949713</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>0.02853904957296569</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>45808</v>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>2.88588619</v>
+      </c>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="n">
+        <v>5</v>
+      </c>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="n">
+        <v>0.02611122862457194</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0.1888888888888889</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0.426984126984127</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0.4892473118279569</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0.4616487455197132</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0.2118518518518518</v>
+      </c>
+      <c r="O198" t="n">
+        <v>0.05448028673835125</v>
+      </c>
+      <c r="P198" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="R198" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S198" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T198" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V198" t="n">
+        <v>0.02612572960324227</v>
+      </c>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="n">
+        <v>0.02660791619985125</v>
+      </c>
+      <c r="Y198" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/PCEPILFE_Economics_optimized.xlsx
+++ b/PCEPILFE_Economics_optimized.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y198"/>
+  <dimension ref="A1:Y199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15448,7 +15448,7 @@
         <v>0.02823817119043426</v>
       </c>
       <c r="I195" t="n">
-        <v>0.426984126984127</v>
+        <v>0.6595238095238095</v>
       </c>
       <c r="J195" t="n">
         <v>0.4616487455197132</v>
@@ -15519,13 +15519,13 @@
         <v>3.3</v>
       </c>
       <c r="G196" t="n">
-        <v>0.426984126984127</v>
+        <v>0.6595238095238095</v>
       </c>
       <c r="H196" t="n">
         <v>0.02663826529935065</v>
       </c>
       <c r="I196" t="n">
-        <v>0.1888888888888889</v>
+        <v>0.8412186379928316</v>
       </c>
       <c r="J196" t="n">
         <v>0.4892473118279569</v>
@@ -15573,7 +15573,7 @@
         <v>0.02701421386553291</v>
       </c>
       <c r="Y196" t="n">
-        <v>0.02691911288305406</v>
+        <v>0.02884251977073851</v>
       </c>
     </row>
     <row r="197">
@@ -15594,14 +15594,16 @@
         <v>4.3</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1888888888888889</v>
+        <v>0.8412186379928316</v>
       </c>
       <c r="H197" t="n">
         <v>0.02921059023945993</v>
       </c>
-      <c r="I197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>1.117037037037037</v>
+      </c>
       <c r="J197" t="n">
-        <v>0.426984126984127</v>
+        <v>0.6595238095238095</v>
       </c>
       <c r="K197" t="n">
         <v>0.4892473118279569</v>
@@ -15646,7 +15648,7 @@
         <v>0.02922750568949713</v>
       </c>
       <c r="Y197" t="n">
-        <v>0.02853904957296569</v>
+        <v>0.02917969145192026</v>
       </c>
     </row>
     <row r="198">
@@ -15656,22 +15658,24 @@
       <c r="B198" t="inlineStr"/>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="n">
-        <v>2.88588619</v>
+        <v>2.88718559</v>
       </c>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="n">
         <v>5</v>
       </c>
-      <c r="G198" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>1.117037037037037</v>
+      </c>
       <c r="H198" t="n">
         <v>0.02611122862457194</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>0.1888888888888889</v>
+        <v>0.8412186379928316</v>
       </c>
       <c r="K198" t="n">
-        <v>0.426984126984127</v>
+        <v>0.6595238095238095</v>
       </c>
       <c r="L198" t="n">
         <v>0.4892473118279569</v>
@@ -15708,9 +15712,64 @@
       </c>
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="n">
-        <v>0.02660791619985125</v>
-      </c>
-      <c r="Y198" t="inlineStr"/>
+        <v>0.02660866119203285</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>0.02743568990099179</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>2.69473854</v>
+      </c>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1.117037037037037</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0.8412186379928316</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0.6595238095238095</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0.4892473118279569</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0.4616487455197132</v>
+      </c>
+      <c r="O199" t="n">
+        <v>0.2118518518518518</v>
+      </c>
+      <c r="P199" t="inlineStr"/>
+      <c r="Q199" t="n">
+        <v>5</v>
+      </c>
+      <c r="R199" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="S199" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T199" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U199" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V199" t="inlineStr"/>
+      <c r="W199" t="inlineStr"/>
+      <c r="X199" t="inlineStr"/>
+      <c r="Y199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/PCEPILFE_Economics_optimized.xlsx
+++ b/PCEPILFE_Economics_optimized.xlsx
@@ -15350,7 +15350,7 @@
         <v>45688</v>
       </c>
       <c r="B194" t="n">
-        <v>124.398</v>
+        <v>124.384</v>
       </c>
       <c r="C194" t="n">
         <v>2.8</v>
@@ -15427,7 +15427,7 @@
         <v>45716</v>
       </c>
       <c r="B195" t="n">
-        <v>125.017</v>
+        <v>124.962</v>
       </c>
       <c r="C195" t="n">
         <v>3.3</v>
@@ -15436,7 +15436,7 @@
         <v>2.62695841</v>
       </c>
       <c r="E195" t="n">
-        <v>0.02663826529935065</v>
+        <v>0.02652571696374117</v>
       </c>
       <c r="F195" t="n">
         <v>2.8</v>
@@ -15504,7 +15504,7 @@
         <v>45747</v>
       </c>
       <c r="B196" t="n">
-        <v>125.052</v>
+        <v>125.076</v>
       </c>
       <c r="C196" t="n">
         <v>4.3</v>
@@ -15513,7 +15513,7 @@
         <v>2.72766223</v>
       </c>
       <c r="E196" t="n">
-        <v>0.02921059023945993</v>
+        <v>0.02877055326925415</v>
       </c>
       <c r="F196" t="n">
         <v>3.3</v>
@@ -15522,7 +15522,7 @@
         <v>0.6595238095238095</v>
       </c>
       <c r="H196" t="n">
-        <v>0.02663826529935065</v>
+        <v>0.02652571696374117</v>
       </c>
       <c r="I196" t="n">
         <v>0.8412186379928316</v>
@@ -15564,23 +15564,25 @@
         <v>2.8</v>
       </c>
       <c r="V196" t="n">
-        <v>0.02665280452308694</v>
+        <v>0.02654051426734788</v>
       </c>
       <c r="W196" t="n">
-        <v>0.02754859295497914</v>
+        <v>0.02744235287538349</v>
       </c>
       <c r="X196" t="n">
-        <v>0.02701421386553291</v>
+        <v>0.02690356159179434</v>
       </c>
       <c r="Y196" t="n">
-        <v>0.02884251977073851</v>
+        <v>0.02873403375806341</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
         <v>45777</v>
       </c>
-      <c r="B197" t="inlineStr"/>
+      <c r="B197" t="n">
+        <v>125.221</v>
+      </c>
       <c r="C197" t="n">
         <v>5</v>
       </c>
@@ -15588,7 +15590,7 @@
         <v>2.18385272</v>
       </c>
       <c r="E197" t="n">
-        <v>0.02611122862457194</v>
+        <v>0.02630313037146692</v>
       </c>
       <c r="F197" t="n">
         <v>4.3</v>
@@ -15597,7 +15599,7 @@
         <v>0.8412186379928316</v>
       </c>
       <c r="H197" t="n">
-        <v>0.02921059023945993</v>
+        <v>0.02877055326925415</v>
       </c>
       <c r="I197" t="n">
         <v>1.117037037037037</v>
@@ -15639,16 +15641,16 @@
         <v>2.7</v>
       </c>
       <c r="V197" t="n">
-        <v>0.02921961457554928</v>
+        <v>0.02878018446898242</v>
       </c>
       <c r="W197" t="n">
-        <v>0.03073993759199538</v>
+        <v>0.0303142687324479</v>
       </c>
       <c r="X197" t="n">
-        <v>0.02922750568949713</v>
+        <v>0.02879810720592288</v>
       </c>
       <c r="Y197" t="n">
-        <v>0.02917969145192026</v>
+        <v>0.02873618147349279</v>
       </c>
     </row>
     <row r="198">
@@ -15656,11 +15658,15 @@
         <v>45808</v>
       </c>
       <c r="B198" t="inlineStr"/>
-      <c r="C198" t="inlineStr"/>
+      <c r="C198" t="n">
+        <v>6.5</v>
+      </c>
       <c r="D198" t="n">
         <v>2.88718559</v>
       </c>
-      <c r="E198" t="inlineStr"/>
+      <c r="E198" t="n">
+        <v>0.02491224843502593</v>
+      </c>
       <c r="F198" t="n">
         <v>5</v>
       </c>
@@ -15668,9 +15674,11 @@
         <v>1.117037037037037</v>
       </c>
       <c r="H198" t="n">
-        <v>0.02611122862457194</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>0.02630313037146692</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1.170250896057348</v>
+      </c>
       <c r="J198" t="n">
         <v>0.8412186379928316</v>
       </c>
@@ -15708,14 +15716,16 @@
         <v>2.7</v>
       </c>
       <c r="V198" t="n">
-        <v>0.02612572960324227</v>
-      </c>
-      <c r="W198" t="inlineStr"/>
+        <v>0.02631743136767315</v>
+      </c>
+      <c r="W198" t="n">
+        <v>0.02913479758935844</v>
+      </c>
       <c r="X198" t="n">
-        <v>0.02660866119203285</v>
+        <v>0.02679038950641952</v>
       </c>
       <c r="Y198" t="n">
-        <v>0.02743568990099179</v>
+        <v>0.02621656524639101</v>
       </c>
     </row>
     <row r="199">
@@ -15728,9 +15738,15 @@
         <v>2.69473854</v>
       </c>
       <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="F199" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1.170250896057348</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.02491224843502593</v>
+      </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
         <v>1.117037037037037</v>
@@ -15750,7 +15766,9 @@
       <c r="O199" t="n">
         <v>0.2118518518518518</v>
       </c>
-      <c r="P199" t="inlineStr"/>
+      <c r="P199" t="n">
+        <v>6.5</v>
+      </c>
       <c r="Q199" t="n">
         <v>5</v>
       </c>
@@ -15766,10 +15784,16 @@
       <c r="U199" t="n">
         <v>2.6</v>
       </c>
-      <c r="V199" t="inlineStr"/>
+      <c r="V199" t="n">
+        <v>0.02493117990448819</v>
+      </c>
       <c r="W199" t="inlineStr"/>
-      <c r="X199" t="inlineStr"/>
-      <c r="Y199" t="inlineStr"/>
+      <c r="X199" t="n">
+        <v>0.02530118593646223</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>0.02625193044452031</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
